--- a/Docs/Projects/副武器需求.xlsx
+++ b/Docs/Projects/副武器需求.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>序号</t>
   </si>
@@ -267,15 +267,21 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFFC000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
       </rPr>
       <t>（2019-12-27新增）</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1.激光炮分为蓄力和发射两个过程，蓄力时机身上具有蓄力特效，表现效果为球形充能，且</t>
     </r>
     <r>
@@ -411,6 +417,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">https://www.bilibili.com/video/av44510696?from=search&amp;seid=4293433285014574898
 </t>
     </r>
@@ -441,6 +455,128 @@
         <charset val="0"/>
       </rPr>
       <t>发射过程：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">电磁炮
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（2019-12-27新增）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.电磁炮在蓄力时，在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>充能时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内机身两侧具有两个电磁线圈。发射时电磁炮会从头部发射，且从小变大。发射后炮弹会向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>固定方向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前进，命中病毒后，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>根据强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产生范围伤害，伤害量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>根据火力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。且未被消灭的病毒进入麻痹状态，表现为周围具有电弧效果，麻痹状态为病毒在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>根据强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">秒内移动速度为零。
+</t>
     </r>
   </si>
 </sst>
@@ -450,9 +586,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -478,19 +614,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,7 +637,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,13 +680,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -538,22 +689,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -570,13 +714,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -586,29 +744,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,9 +773,8 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -670,31 +805,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +919,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,31 +961,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,103 +979,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,11 +999,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,32 +1032,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,6 +1049,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,6 +1079,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -969,10 +1104,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,19 +1116,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,116 +1137,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,9 +1279,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1669,6 +1801,212 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7058025" y="12068175"/>
+          <a:ext cx="904875" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="13716000"/>
+          <a:ext cx="2133600" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>153035</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>608965</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>267335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8477885" y="11943715"/>
+          <a:ext cx="1827530" cy="3239770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16" descr="1577441807(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10725150" y="12715875"/>
+          <a:ext cx="781050" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>637540</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762625" y="12144375"/>
+          <a:ext cx="1142365" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1961,8 +2299,8 @@
   <sheetPr/>
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:C40"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2275,8 +2613,8 @@
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:11">
       <c r="A22" s="2"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2288,8 +2626,8 @@
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:11">
       <c r="A23" s="2"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -2301,8 +2639,8 @@
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:11">
       <c r="A24" s="2"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -2314,8 +2652,8 @@
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:11">
       <c r="A25" s="2"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -2327,8 +2665,8 @@
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:11">
       <c r="A26" s="2"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -2340,8 +2678,8 @@
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:11">
       <c r="A27" s="2"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -2353,8 +2691,8 @@
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:11">
       <c r="A28" s="2"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2366,8 +2704,8 @@
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:11">
       <c r="A29" s="2"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -2379,8 +2717,8 @@
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:11">
       <c r="A30" s="2"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -2394,70 +2732,74 @@
       <c r="A31" s="2">
         <v>4</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:11">
       <c r="A32" s="2"/>
-      <c r="B32" s="11"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="11"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:11">
       <c r="A33" s="2"/>
-      <c r="B33" s="11"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="11"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:11">
       <c r="A34" s="2"/>
-      <c r="B34" s="11"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="11"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:11">
       <c r="A35" s="2"/>
-      <c r="B35" s="11"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="11"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" ht="30" customHeight="1" spans="1:11">
       <c r="A36" s="2"/>
-      <c r="B36" s="11"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="11"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
     <row r="37" ht="30" customHeight="1" spans="1:11">
       <c r="A37" s="2"/>
-      <c r="B37" s="11"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="11"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:11">
       <c r="A38" s="2"/>
-      <c r="B38" s="11"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="11"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
     <row r="39" ht="30" customHeight="1" spans="1:11">
       <c r="A39" s="2"/>
-      <c r="B39" s="11"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="11"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:11">
       <c r="A40" s="2"/>
-      <c r="B40" s="11"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="11"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
